--- a/data/trans_bre/P24_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_4_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>171,29%</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>265,22%</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>199,63%</t>
+          <t>171,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>208,1%</t>
+          <t>294,35%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>202,29%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>220,61%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>173,34%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>101,42%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>117,7%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,56</t>
+          <t>2,22; 6,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,04</t>
+          <t>3,18; 7,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,81</t>
+          <t>3,26; 8,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,43</t>
+          <t>3,44; 8,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,63</t>
+          <t>5,24; 12,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>68,72; 405,17</t>
+          <t>2,95; 9,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,56; 558,0</t>
+          <t>6,47; 12,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,91; 386,8</t>
+          <t>66,87; 374,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>37,68; 435,42</t>
+          <t>112,95; 657,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,51; 190,76</t>
+          <t>90,38; 399,38</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>56,12; 463,44</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>75,93; 343,83</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>32,28; 187,11</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>68,81; 204,94</t>
         </is>
       </c>
     </row>
@@ -761,7 +833,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -771,37 +843,57 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,43</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>180,73%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>180,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62,8%</t>
+          <t>105,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>140,76%</t>
+          <t>41,82%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>64,11%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>103,12%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>140,83%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>137,26%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,53</t>
+          <t>1,34; 5,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 6,15</t>
+          <t>-0,09; 7,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 5,03</t>
+          <t>-0,74; 5,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,5</t>
+          <t>0,13; 7,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 13,98</t>
+          <t>2,78; 13,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,94; 474,82</t>
+          <t>2,61; 13,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 319,1</t>
+          <t>4,57; 17,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 129,16</t>
+          <t>36,17; 474,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 163,11</t>
+          <t>-17,63; 323,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,31; 418,64</t>
+          <t>-15,83; 137,44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 174,38</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13,83; 213,27</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>28,23; 360,22</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>44,11; 338,26</t>
         </is>
       </c>
     </row>
@@ -881,45 +993,65 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>11,82</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>201,53%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>285,9%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>365,88%</t>
+          <t>201,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>366,92%</t>
+          <t>179,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>330,78%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>335,87%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>318,81%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 9,56</t>
+          <t>0,52; 9,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 12,48</t>
+          <t>-0,52; 9,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 15,0</t>
+          <t>4,18; 14,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 12,68</t>
+          <t>2,2; 11,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>4,74; 20,09</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-24,65; 1127,02</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 1553,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,28; 1479,01</t>
+          <t>-19,99; 1165,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 2050,58</t>
+          <t>-37,11; 1221,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>46,96; 1391,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 1903,58</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>48,35; 1200,86</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>8,75</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>6,77</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>179,1%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>180,88%</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>125,86%</t>
+          <t>179,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>135,63%</t>
+          <t>178,79%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>109,61%</t>
+          <t>124,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>137,25%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>145,83%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>109,62%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>122,1%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,58</t>
+          <t>2,49; 5,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,22</t>
+          <t>2,7; 6,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,3</t>
+          <t>2,81; 6,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,06</t>
+          <t>3,33; 7,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 9,56</t>
+          <t>5,89; 11,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,6; 328,14</t>
+          <t>4,18; 9,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,8; 364,54</t>
+          <t>6,83; 12,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,87; 211,56</t>
+          <t>85,32; 319,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58,23; 234,68</t>
+          <t>62,91; 343,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,34; 185,75</t>
+          <t>59,74; 224,42</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>61,18; 227,32</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>70,61; 233,57</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>52,17; 195,7</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>71,04; 193,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P24_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,67</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,15</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,55</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>9,59</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>171,31%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>294,35%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>202,29%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>220,61%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>173,34%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>101,42%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>117,7%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.290622167189974</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.294437067780489</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.584227914180649</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.159586326755894</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>8.733686028701079</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>6.555241552443765</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>9.563267755320929</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.713143501221961</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>3.122273547480862</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.01455660923935</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>2.184739926083405</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.773436814766621</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>1.014239310174908</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>1.176099580658283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 6,43</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,18; 7,54</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 8,03</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 8,62</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>5,24; 12,26</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 9,77</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>6,47; 12,98</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>66,87; 374,78</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>112,95; 657,21</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>90,38; 399,38</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>56,12; 463,44</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>75,93; 343,83</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>32,28; 187,11</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>68,81; 204,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.220940638291825</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>3.193205634062071</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.235535656730312</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3.234715668937391</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>5.394382496411936</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>2.953526352065663</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>6.378188909973261</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.6686629475764109</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>1.206421118652544</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.8879031136504301</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.4112226348267742</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.7916438966165763</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.3228081517536747</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.6818258033821895</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.428084454980857</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.341768407636176</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.923202049089054</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8.666862160531212</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>12.40312994023147</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>9.772307060288281</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>12.90788100294496</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.747837126836749</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>6.883019460776548</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>4.154788186075204</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>4.640613683989899</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>3.484565176137788</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1.871095691565155</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>2.037031594502969</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,35</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,2</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>10,62</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>180,79%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>105,13%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>41,82%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>64,11%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>103,12%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>140,83%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>137,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,34; 5,57</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 7,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 5,21</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 7,54</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 13,32</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,61; 13,79</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>4,57; 17,14</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>36,17; 474,74</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-17,63; 323,6</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-15,83; 137,44</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 174,38</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>13,83; 213,27</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>28,23; 360,22</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>44,11; 338,26</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.354662336212714</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.243592532475457</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.030038406325247</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.547810850392439</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>8.55462121027556</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>7.430177024491752</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>10.70994342691829</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.807900587228696</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.024290627507105</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3894799967622645</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.6680945895398381</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.085877284437399</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>1.408280639805783</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>1.372756891088215</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,79</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,47</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,82</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>201,36%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>179,93%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>330,78%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>335,87%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>318,81%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.343563478291149</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1199383314140733</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.8680547886272693</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.2154639259082695</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>3.180188543587184</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>2.609201047875745</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>4.592160175557535</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.3617483199133981</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2173817101183392</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1728553673864099</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.004387217404518752</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.167367006098274</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.2823460933913787</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.4320030959585444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 9,97</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 9,2</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,18; 14,44</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 11,96</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>4,74; 20,09</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-19,99; 1165,16</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-37,11; 1221,19</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>46,96; 1391,21</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 1903,58</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>48,35; 1200,86</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.571250765092042</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.439739558741965</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.089135106507012</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.311310019798184</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>13.57689131263433</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>13.78503666200115</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>17.21654232162071</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.747373670184778</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.112162405198867</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.359432954390752</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.678118487191207</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.232997851743184</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>3.602213180489653</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>3.408285381441516</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,99</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,56</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,2</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,75</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,77</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,83</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>179,11%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>178,79%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>124,27%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>137,25%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>145,83%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>109,62%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>122,1%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>4.79043008050651</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.415299816889115</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.852399392028421</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.835973937503299</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>11.89319409923841</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>2.013630699711609</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>2.665287041546101</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>3.429034341427777</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>3.383311051442965</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>3.096412006786879</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,49; 5,35</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,7; 6,69</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,81; 6,61</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 7,2</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5,89; 11,48</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,18; 9,77</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>6,83; 12,9</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>85,32; 319,26</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>62,91; 343,16</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>59,74; 224,42</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>61,18; 227,32</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>70,61; 233,57</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>52,17; 195,7</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>71,04; 193,35</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.5203220587957171</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.7139089478870192</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.105535810882776</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>2.122188015487742</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>4.592016844816899</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.1999300846653138</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1967211155438748</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.4950543133722029</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.04183209299583099</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.4301965145866486</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.96704523711964</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.73144819299706</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.3440065543591</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.69961911344502</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>20.06392472218365</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>11.65159216673302</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>15.00446887283778</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>14.31991180981277</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>19.82986600841934</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>11.92839710600722</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.99106284149018</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.495071630593325</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.55174505666337</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.201280564262713</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>8.986060878897552</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>6.772726845269197</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>9.824076135811026</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.791106432443196</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.934539459071655</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.220774318337615</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>1.39913728740043</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1.502029007726285</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>1.096242857969169</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>1.220197454597631</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.486715590064182</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.736136513368882</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.691020055070089</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.175404437364377</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>6.163131032441735</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>4.176681026389409</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>6.858775866959968</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.8532385199169245</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.7254232319200219</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.5847666201068559</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.6048851984008564</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.7362192742421946</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.5217209811647923</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.7034789586763053</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.349323449635278</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.413135318947496</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.482142669038603</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.013943291719158</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>11.77469299780978</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>9.768221912546</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>12.85845157743139</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.19260501717158</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>3.715886117606411</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.248928145406595</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>2.326685629711168</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>2.425954996049089</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>1.956993150194906</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>1.919076234542243</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
